--- a/bots/crawl_ch/output/vegi_coop_2023-01-28.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-28.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7794,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8472,7 +8472,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9430,7 +9430,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9917,7 +9917,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -9982,7 +9982,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10051,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10185,7 +10185,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10526,7 +10526,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10664,7 +10664,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11084,7 +11084,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11433,7 +11433,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11502,7 +11502,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11567,7 +11567,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11689,7 +11689,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11754,7 +11754,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12172,7 +12172,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12499,7 +12499,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12572,7 +12572,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13189,7 +13189,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13388,7 +13388,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13457,7 +13457,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13806,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -13944,7 +13944,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14009,7 +14009,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14358,7 +14358,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14561,7 +14561,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14630,7 +14630,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14768,7 +14768,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14910,7 +14910,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15040,7 +15040,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15367,7 +15367,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15436,7 +15436,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15844,7 +15844,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15909,7 +15909,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -15978,7 +15978,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16047,7 +16047,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16116,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16185,7 +16185,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16299,7 +16299,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16346,7 +16346,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16415,7 +16415,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16488,7 +16488,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16557,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16699,7 +16699,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16768,7 +16768,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16837,7 +16837,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17046,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17115,7 +17115,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17184,7 +17184,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17253,7 +17253,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17326,7 +17326,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17472,7 +17472,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17541,7 +17541,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17610,7 +17610,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17683,7 +17683,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18048,7 +18048,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18117,7 +18117,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18186,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18462,7 +18462,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18742,7 +18742,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18882,7 +18882,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -18947,7 +18947,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19016,7 +19016,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19081,7 +19081,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19150,7 +19150,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19219,7 +19219,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19426,7 +19426,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19499,7 +19499,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19568,7 +19568,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19641,7 +19641,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19714,7 +19714,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19852,7 +19852,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19921,7 +19921,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -19994,7 +19994,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20205,7 +20205,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20416,7 +20416,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20777,7 +20777,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20840,7 +20840,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20909,7 +20909,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -20972,7 +20972,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21114,7 +21114,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21187,7 +21187,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21323,7 +21323,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21534,7 +21534,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21587,7 +21587,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21652,7 +21652,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21867,7 +21867,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -21999,7 +21999,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22064,7 +22064,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22202,7 +22202,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22267,7 +22267,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22336,7 +22336,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22409,7 +22409,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22551,7 +22551,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22693,7 +22693,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22766,7 +22766,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22831,7 +22831,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22900,7 +22900,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -22967,7 +22967,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23040,7 +23040,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23186,7 +23186,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23255,7 +23255,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23328,7 +23328,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23397,7 +23397,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23539,7 +23539,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23612,7 +23612,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23659,7 +23659,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23724,7 +23724,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23787,7 +23787,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23856,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -23998,7 +23998,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24140,7 +24140,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24209,7 +24209,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24282,7 +24282,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24331,7 +24331,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24404,7 +24404,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24473,7 +24473,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24546,7 +24546,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24611,7 +24611,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24680,7 +24680,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24749,7 +24749,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24818,7 +24818,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24887,7 +24887,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -24956,7 +24956,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25029,7 +25029,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25094,7 +25094,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25163,7 +25163,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25236,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25380,7 +25380,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25453,7 +25453,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25526,7 +25526,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25599,7 +25599,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25672,7 +25672,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25745,7 +25745,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25891,7 +25891,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -25964,7 +25964,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26033,7 +26033,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26106,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26175,7 +26175,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26248,7 +26248,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26321,7 +26321,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26467,7 +26467,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26536,7 +26536,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26609,7 +26609,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26682,7 +26682,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26901,7 +26901,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -26974,7 +26974,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27039,7 +27039,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27108,7 +27108,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27181,7 +27181,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27250,7 +27250,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27323,7 +27323,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27388,7 +27388,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27461,7 +27461,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27534,7 +27534,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27607,7 +27607,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27672,7 +27672,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27737,7 +27737,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27804,7 +27804,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27877,7 +27877,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -27942,7 +27942,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28015,7 +28015,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28088,7 +28088,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28153,7 +28153,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28226,7 +28226,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28372,7 +28372,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28579,7 +28579,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28867,7 +28867,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -28940,7 +28940,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29013,7 +29013,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29086,7 +29086,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29159,7 +29159,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29226,7 +29226,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29299,7 +29299,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29364,7 +29364,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29431,7 +29431,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29498,7 +29498,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29551,7 +29551,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29624,7 +29624,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29693,7 +29693,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29835,7 +29835,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29908,7 +29908,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30054,7 +30054,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30198,7 +30198,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30271,7 +30271,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30344,7 +30344,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30413,7 +30413,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30486,7 +30486,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30557,7 +30557,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30626,7 +30626,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30697,7 +30697,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30841,7 +30841,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30914,7 +30914,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -30987,7 +30987,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31060,7 +31060,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31133,7 +31133,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31206,7 +31206,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31271,7 +31271,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31340,7 +31340,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31413,7 +31413,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31486,7 +31486,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31537,7 +31537,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31610,7 +31610,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31744,7 +31744,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31813,7 +31813,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31886,7 +31886,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32032,7 +32032,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32105,7 +32105,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32158,7 +32158,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32296,7 +32296,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32442,7 +32442,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32511,7 +32511,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32576,7 +32576,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32643,7 +32643,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32708,7 +32708,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32781,7 +32781,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32850,7 +32850,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32915,7 +32915,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -32980,7 +32980,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33053,7 +33053,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33122,7 +33122,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33191,7 +33191,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33264,7 +33264,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33337,7 +33337,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33402,7 +33402,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33471,7 +33471,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33544,7 +33544,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33617,7 +33617,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33690,7 +33690,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33763,7 +33763,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33826,7 +33826,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33899,7 +33899,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34045,7 +34045,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34118,7 +34118,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34191,7 +34191,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34256,7 +34256,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34313,7 +34313,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34380,7 +34380,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34453,7 +34453,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34516,7 +34516,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34587,7 +34587,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34660,7 +34660,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34725,7 +34725,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34796,7 +34796,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34869,7 +34869,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -34942,7 +34942,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35005,7 +35005,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35078,7 +35078,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35151,7 +35151,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35216,7 +35216,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35289,7 +35289,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35433,7 +35433,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35504,7 +35504,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35577,7 +35577,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35646,7 +35646,7 @@
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35719,7 +35719,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35792,7 +35792,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35865,7 +35865,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -35932,7 +35932,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36003,7 +36003,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36072,7 +36072,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36143,7 +36143,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36208,7 +36208,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36275,7 +36275,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36326,7 +36326,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36393,7 +36393,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36462,7 +36462,7 @@
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36535,7 +36535,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36606,7 +36606,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36677,7 +36677,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36748,7 +36748,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
@@ -36819,7 +36819,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-01-28 06:51:36</t>
+          <t>2023-01-28 12:56:19</t>
         </is>
       </c>
     </row>
